--- a/static/media/assets/finances.xlsx
+++ b/static/media/assets/finances.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E55201CA-3F5D-4C25-B88E-F98DD90C476C}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CE6C2B-D047-4D02-B044-060C5DA92E9A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abhisek Bidari" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -50,7 +50,7 @@
     <t>I paid</t>
   </si>
   <si>
-    <t>He Paid</t>
+    <t>He/She Paid</t>
   </si>
   <si>
     <t>Notes</t>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>College tuition (Next Sem. Deposit)</t>
-  </si>
-  <si>
-    <t>She Paid</t>
   </si>
   <si>
     <t>Wire transfer</t>
@@ -338,13 +335,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,10 +355,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,865 +696,865 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>45158</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
         <v>670</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>45158</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>1500</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>45158</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>150</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>45159</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>168.8</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>45159</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>2000</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>45147</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>43</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>45178</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>340.4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>45178</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>100</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>45188</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
         <v>2400</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>45189</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>128.12</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>45189</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>8213.82</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>45208</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>1031</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>45212</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>1000</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>45215</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>35</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>45223</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
         <v>300</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>45223</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>128.12</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>45226</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
         <v>600</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>45235</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
         <v>500</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>45235</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
         <v>3094</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>45239</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
         <v>1035</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>45243</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
         <v>500</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>45246</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>1500</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>45250</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <v>600</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>45250</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>128.12</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9">
+      <c r="A26" s="6">
         <v>45280</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
         <v>1000</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9">
+      <c r="A27" s="6">
         <v>45280</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>128.12</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9">
+      <c r="A28" s="6">
         <v>45282</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>549.1</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9">
+      <c r="A29" s="6">
         <v>45294</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8">
         <v>430</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9">
+      <c r="A30" s="6">
         <v>45296</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8">
         <v>950</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>45323</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>128.12</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9">
+      <c r="A32" s="6">
         <v>45328</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8">
         <v>1510</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>45350</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>128.12</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>45350</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>480</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>45351</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8">
         <v>40</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>45372</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>128.12</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>45352</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>1300</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="8">
         <v>1500</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>45383</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8">
         <v>1500</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>45383</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>1500</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="8">
         <v>1000</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>45413</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8">
         <v>1500</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>45403</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>128.12</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>45433</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="8">
         <v>128.12</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>45436</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8">
         <v>1300</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>45444</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8">
         <v>1500</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9">
+      <c r="A45" s="6">
         <v>45446</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
         <v>150</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9">
+      <c r="A46" s="6">
         <v>45453</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8">
         <v>350</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9">
+      <c r="A47" s="6">
         <v>45453</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="8">
         <v>2200</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9">
+      <c r="A48" s="6">
         <v>45464</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="8">
         <v>128.12</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9">
+      <c r="A49" s="6">
         <v>45464</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8">
         <v>700</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9">
+      <c r="A50" s="6">
         <v>45480</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8">
         <v>400</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="9">
+      <c r="A51" s="6">
         <v>45483</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8">
         <v>1500</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9">
+      <c r="A52" s="6">
         <v>45477</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="8">
         <v>300</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1569,24 +1563,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49519AE5-D83D-4443-BC11-0C86CEDD9AC6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A89C803-1537-4AFA-A94A-8FF71A28F8A8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1596,12 +1647,12 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
@@ -1610,524 +1661,524 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>45451</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>800</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>45457</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>100</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>45458</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>45459</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>340</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>45458</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>23</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>30</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>45462</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>1500</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>45464</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>250</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>45464</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>45464</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>45471</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>260</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>45483</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>350</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2139,12 +2190,12 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
@@ -2153,623 +2204,623 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>45446</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16">
         <v>3066.23</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>45446</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>11.57</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>45446</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>95</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>45446</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>2200</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>45446</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>29.1</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>45446</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>500</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>45446</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16">
         <f>200000/97.6</f>
         <v>2049.1803278688526</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>45446</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>2000</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>45446</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>2224.9699999999998</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>45446</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
         <v>1000</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>45446</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
         <v>1500</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>45446</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16">
         <v>500</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>45446</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
         <v>3000</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>45446</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
         <v>600</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>45446</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="14">
         <v>6597.57</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>45446</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16">
         <v>1000</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>45446</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>150</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>45452</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16">
         <v>1300</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>45452</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
         <v>250</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>45453</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16">
         <v>250</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7">
+      <c r="A22" s="4">
         <v>45452</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
         <v>400</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7">
+      <c r="A23" s="4">
         <v>45452</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16">
         <v>100</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7">
+      <c r="A24" s="4">
         <v>45453</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>2200</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2780,483 +2831,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F2897F-C97A-4D48-8151-3183F26DB921}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>45288</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <f>9000*1.3</f>
         <v>11700</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>700</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>45158</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8390</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>700</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>45289</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8390</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
-        <v>45288</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <f>600*1.3</f>
         <v>780</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>73</v>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="2"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="2"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="2"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="2"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
